--- a/Start.xlsx
+++ b/Start.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B6"/>
+  <dimension ref="B6:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -354,6 +354,11 @@
     <row r="6" spans="2:2">
       <c r="B6">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
